--- a/benchmarks/future_simulations-90.0-days.xlsx
+++ b/benchmarks/future_simulations-90.0-days.xlsx
@@ -462,13 +462,13 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>36445246323.99625</v>
+        <v>22767658336.42835</v>
       </c>
       <c r="I2">
-        <v>4939.148749880472</v>
+        <v>7007.645625592759</v>
       </c>
       <c r="J2">
-        <v>31314427669.54649</v>
+        <v>15492252446.24731</v>
       </c>
     </row>
   </sheetData>
